--- a/DataBase/TestDataDB/TestData.xlsx
+++ b/DataBase/TestDataDB/TestData.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
